--- a/artfynd/A 6933-2023.xlsx
+++ b/artfynd/A 6933-2023.xlsx
@@ -1069,7 +1069,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782537</v>
+        <v>111782531</v>
       </c>
       <c r="B5" t="n">
         <v>93388</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572143.9508974494</v>
+        <v>572404.6564225279</v>
       </c>
       <c r="R5" t="n">
-        <v>6300252.539621729</v>
+        <v>6300359.898093811</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1158,12 +1158,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Riklig</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1190,7 +1195,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782531</v>
+        <v>111782537</v>
       </c>
       <c r="B6" t="n">
         <v>93388</v>
@@ -1225,7 +1230,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1239,10 +1244,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572404.6564225279</v>
+        <v>572143.9508974494</v>
       </c>
       <c r="R6" t="n">
-        <v>6300359.898093811</v>
+        <v>6300252.539621729</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,7 +1274,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1279,17 +1284,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Riklig</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 6933-2023.xlsx
+++ b/artfynd/A 6933-2023.xlsx
@@ -1069,7 +1069,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782531</v>
+        <v>111782537</v>
       </c>
       <c r="B5" t="n">
         <v>93388</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572404.6564225279</v>
+        <v>572143.9508974494</v>
       </c>
       <c r="R5" t="n">
-        <v>6300359.898093811</v>
+        <v>6300252.539621729</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1158,17 +1158,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Riklig</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1195,7 +1190,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782537</v>
+        <v>111782531</v>
       </c>
       <c r="B6" t="n">
         <v>93388</v>
@@ -1230,7 +1225,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1244,10 +1239,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572143.9508974494</v>
+        <v>572404.6564225279</v>
       </c>
       <c r="R6" t="n">
-        <v>6300252.539621729</v>
+        <v>6300359.898093811</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1274,7 +1269,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1284,12 +1279,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Riklig</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 6933-2023.xlsx
+++ b/artfynd/A 6933-2023.xlsx
@@ -948,10 +948,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782529</v>
+        <v>111782537</v>
       </c>
       <c r="B4" t="n">
-        <v>88869</v>
+        <v>93388</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -960,25 +960,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2008</v>
+        <v>2180</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fyrflikig jordstjärna</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Geastrum quadrifidum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572410.864430059</v>
+        <v>572143.9508974494</v>
       </c>
       <c r="R4" t="n">
-        <v>6300349.611970967</v>
+        <v>6300252.539621729</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1069,10 +1069,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782537</v>
+        <v>111782529</v>
       </c>
       <c r="B5" t="n">
-        <v>93388</v>
+        <v>88869</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1081,25 +1081,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>2008</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Fyrflikig jordstjärna</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Geastrum quadrifidum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Pers.:Pers.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572143.9508974494</v>
+        <v>572410.864430059</v>
       </c>
       <c r="R5" t="n">
-        <v>6300252.539621729</v>
+        <v>6300349.611970967</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">

--- a/artfynd/A 6933-2023.xlsx
+++ b/artfynd/A 6933-2023.xlsx
@@ -948,10 +948,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782537</v>
+        <v>111782529</v>
       </c>
       <c r="B4" t="n">
-        <v>93388</v>
+        <v>88869</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -960,25 +960,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2180</v>
+        <v>2008</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Fyrflikig jordstjärna</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Geastrum quadrifidum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Pers.:Pers.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572143.9508974494</v>
+        <v>572410.864430059</v>
       </c>
       <c r="R4" t="n">
-        <v>6300252.539621729</v>
+        <v>6300349.611970967</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1069,10 +1069,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782529</v>
+        <v>111782537</v>
       </c>
       <c r="B5" t="n">
-        <v>88869</v>
+        <v>93388</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1081,25 +1081,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2008</v>
+        <v>2180</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fyrflikig jordstjärna</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Geastrum quadrifidum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572410.864430059</v>
+        <v>572143.9508974494</v>
       </c>
       <c r="R5" t="n">
-        <v>6300349.611970967</v>
+        <v>6300252.539621729</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">

--- a/artfynd/A 6933-2023.xlsx
+++ b/artfynd/A 6933-2023.xlsx
@@ -948,10 +948,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782529</v>
+        <v>111782531</v>
       </c>
       <c r="B4" t="n">
-        <v>88869</v>
+        <v>93388</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -960,35 +960,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2008</v>
+        <v>2180</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fyrflikig jordstjärna</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Geastrum quadrifidum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572410.864430059</v>
+        <v>572404.6564225279</v>
       </c>
       <c r="R4" t="n">
-        <v>6300349.611970967</v>
+        <v>6300359.898093811</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1043,6 +1043,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Riklig</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1069,10 +1074,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782537</v>
+        <v>111782529</v>
       </c>
       <c r="B5" t="n">
-        <v>93388</v>
+        <v>88869</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1081,25 +1086,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>2008</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Fyrflikig jordstjärna</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Geastrum quadrifidum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Pers.:Pers.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1109,7 +1114,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1118,10 +1123,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572143.9508974494</v>
+        <v>572410.864430059</v>
       </c>
       <c r="R5" t="n">
-        <v>6300252.539621729</v>
+        <v>6300349.611970967</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,7 +1153,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1158,7 +1163,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1190,7 +1195,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782531</v>
+        <v>111782537</v>
       </c>
       <c r="B6" t="n">
         <v>93388</v>
@@ -1225,7 +1230,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1239,10 +1244,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572404.6564225279</v>
+        <v>572143.9508974494</v>
       </c>
       <c r="R6" t="n">
-        <v>6300359.898093811</v>
+        <v>6300252.539621729</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,7 +1274,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1279,17 +1284,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Riklig</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 6933-2023.xlsx
+++ b/artfynd/A 6933-2023.xlsx
@@ -948,10 +948,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782531</v>
+        <v>111782529</v>
       </c>
       <c r="B4" t="n">
-        <v>93388</v>
+        <v>88869</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -960,35 +960,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2180</v>
+        <v>2008</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Fyrflikig jordstjärna</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Geastrum quadrifidum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>Pers.:Pers.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>572404.6564225279</v>
+        <v>572411</v>
       </c>
       <c r="R4" t="n">
-        <v>6300359.898093811</v>
+        <v>6300350</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1030,24 +1030,9 @@
           <t>2022-09-13</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2022-09-13</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Riklig</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1074,10 +1059,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782529</v>
+        <v>111782537</v>
       </c>
       <c r="B5" t="n">
-        <v>88869</v>
+        <v>93388</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,25 +1071,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2008</v>
+        <v>2180</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fyrflikig jordstjärna</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Geastrum quadrifidum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pers.:Pers.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1114,7 +1099,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1123,10 +1108,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>572410.864430059</v>
+        <v>572144</v>
       </c>
       <c r="R5" t="n">
-        <v>6300349.611970967</v>
+        <v>6300253</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1153,22 +1138,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1195,7 +1170,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782537</v>
+        <v>111782531</v>
       </c>
       <c r="B6" t="n">
         <v>93388</v>
@@ -1230,7 +1205,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1244,10 +1219,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>572143.9508974494</v>
+        <v>572405</v>
       </c>
       <c r="R6" t="n">
-        <v>6300252.539621729</v>
+        <v>6300360</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1274,22 +1249,17 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Riklig</t>
         </is>
       </c>
       <c r="AD6" t="b">
